--- a/public/files/Metatelnye_praktiki_itogi_2_etapa.xlsx
+++ b/public/files/Metatelnye_praktiki_itogi_2_etapa.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp2\knives-v3\public\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="110" windowWidth="15300" windowHeight="7340" tabRatio="845"/>
+    <workbookView xWindow="75" yWindow="105" windowWidth="15300" windowHeight="7335" tabRatio="845"/>
   </bookViews>
   <sheets>
     <sheet name="чемпионы и призеры" sheetId="10" r:id="rId1"/>
@@ -16,7 +21,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'распределение по лигам'!$A$1:$G$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'сводный протокол'!$A$1:$Q$413</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -906,6 +911,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -953,7 +961,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -988,7 +996,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1203,20 +1211,20 @@
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.36328125" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
-    <col min="4" max="4" width="5.453125" style="11" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
+    <col min="4" max="4" width="5.42578125" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>148</v>
       </c>
@@ -1266,7 +1274,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>79</v>
       </c>
@@ -1316,7 +1324,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>77</v>
       </c>
@@ -1366,7 +1374,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>116</v>
       </c>
@@ -1416,7 +1424,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>173</v>
       </c>
@@ -1466,7 +1474,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -1516,7 +1524,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>133</v>
       </c>
@@ -1566,12 +1574,12 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>82</v>
       </c>
@@ -1621,7 +1629,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>79</v>
       </c>
@@ -1671,7 +1679,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>50</v>
       </c>
@@ -1721,7 +1729,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>224</v>
       </c>
@@ -1768,7 +1776,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>117</v>
       </c>
@@ -1818,7 +1826,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -1868,7 +1876,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>67</v>
       </c>
@@ -1918,7 +1926,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>53</v>
       </c>
@@ -1968,7 +1976,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>129</v>
       </c>
@@ -2018,7 +2026,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2035,12 +2043,12 @@
       <c r="N23" s="10"/>
       <c r="O23" s="10"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>50</v>
       </c>
@@ -2090,7 +2098,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>148</v>
       </c>
@@ -2140,7 +2148,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>54</v>
       </c>
@@ -2190,7 +2198,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>134</v>
       </c>
@@ -2240,7 +2248,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>65</v>
       </c>
@@ -2290,7 +2298,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>227</v>
       </c>
@@ -2340,7 +2348,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>53</v>
       </c>
@@ -2390,7 +2398,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>46</v>
       </c>
@@ -2440,7 +2448,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>161</v>
       </c>
@@ -2490,12 +2498,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>54</v>
       </c>
@@ -2545,7 +2553,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>50</v>
       </c>
@@ -2595,7 +2603,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>48</v>
       </c>
@@ -2645,7 +2653,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>224</v>
       </c>
@@ -2692,7 +2700,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>72</v>
       </c>
@@ -2742,7 +2750,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -2792,7 +2800,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
         <v>158</v>
       </c>
@@ -2842,7 +2850,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>210</v>
       </c>
@@ -2889,7 +2897,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>199</v>
       </c>
@@ -2939,12 +2947,12 @@
         <v>203</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>233</v>
       </c>
@@ -2994,7 +3002,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>43</v>
       </c>
@@ -3044,7 +3052,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>170</v>
       </c>
@@ -3094,7 +3102,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>172</v>
       </c>
@@ -3144,7 +3152,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>68</v>
       </c>
@@ -3194,7 +3202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>173</v>
       </c>
@@ -3244,7 +3252,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>221</v>
       </c>
@@ -3291,7 +3299,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>122</v>
       </c>
@@ -3341,7 +3349,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>86</v>
       </c>
@@ -3391,12 +3399,12 @@
         <v>89</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63" s="16" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>43</v>
       </c>
@@ -3446,7 +3454,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>133</v>
       </c>
@@ -3496,7 +3504,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>233</v>
       </c>
@@ -3546,7 +3554,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>172</v>
       </c>
@@ -3596,7 +3604,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>142</v>
       </c>
@@ -3646,7 +3654,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>63</v>
       </c>
@@ -3696,7 +3704,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>144</v>
       </c>
@@ -3746,7 +3754,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>136</v>
       </c>
@@ -3796,7 +3804,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>175</v>
       </c>
@@ -3846,12 +3854,12 @@
         <v>186</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="15" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>43</v>
       </c>
@@ -3901,7 +3909,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>170</v>
       </c>
@@ -3951,7 +3959,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>133</v>
       </c>
@@ -4001,7 +4009,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>172</v>
       </c>
@@ -4051,7 +4059,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>173</v>
       </c>
@@ -4101,7 +4109,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>68</v>
       </c>
@@ -4151,7 +4159,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>206</v>
       </c>
@@ -4201,7 +4209,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>136</v>
       </c>
@@ -4251,7 +4259,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>175</v>
       </c>
@@ -4315,13 +4323,13 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4344,7 +4352,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>50</v>
       </c>
@@ -4368,7 +4376,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>54</v>
       </c>
@@ -4392,7 +4400,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>43</v>
       </c>
@@ -4416,7 +4424,7 @@
         <v>1570</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>148</v>
       </c>
@@ -4440,7 +4448,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>79</v>
       </c>
@@ -4464,7 +4472,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>112</v>
       </c>
@@ -4488,7 +4496,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>82</v>
       </c>
@@ -4512,7 +4520,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>77</v>
       </c>
@@ -4536,7 +4544,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>191</v>
       </c>
@@ -4560,7 +4568,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
@@ -4584,7 +4592,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>75</v>
       </c>
@@ -4608,7 +4616,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>81</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>154</v>
       </c>
@@ -4656,7 +4664,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>116</v>
       </c>
@@ -4680,7 +4688,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>196</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>170</v>
       </c>
@@ -4728,7 +4736,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>235</v>
       </c>
@@ -4752,7 +4760,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>153</v>
       </c>
@@ -4776,7 +4784,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>73</v>
       </c>
@@ -4800,7 +4808,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>133</v>
       </c>
@@ -4824,7 +4832,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>156</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>120</v>
       </c>
@@ -4872,7 +4880,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>108</v>
       </c>
@@ -4896,7 +4904,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>224</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>172</v>
       </c>
@@ -4944,7 +4952,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>72</v>
       </c>
@@ -4968,7 +4976,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>134</v>
       </c>
@@ -4992,7 +5000,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>200</v>
       </c>
@@ -5016,7 +5024,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>227</v>
       </c>
@@ -5040,7 +5048,7 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>198</v>
       </c>
@@ -5064,7 +5072,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>95</v>
       </c>
@@ -5088,7 +5096,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>159</v>
       </c>
@@ -5112,7 +5120,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>54</v>
       </c>
@@ -5136,7 +5144,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -5160,7 +5168,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>147</v>
       </c>
@@ -5184,7 +5192,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -5208,7 +5216,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>117</v>
       </c>
@@ -5232,7 +5240,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>173</v>
       </c>
@@ -5256,7 +5264,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>142</v>
       </c>
@@ -5280,7 +5288,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>70</v>
       </c>
@@ -5304,7 +5312,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -5328,7 +5336,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>63</v>
       </c>
@@ -5352,7 +5360,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>65</v>
       </c>
@@ -5376,7 +5384,7 @@
         <v>905</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>193</v>
       </c>
@@ -5400,7 +5408,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -5424,7 +5432,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>34</v>
       </c>
@@ -5448,7 +5456,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>175</v>
       </c>
@@ -5472,7 +5480,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>160</v>
       </c>
@@ -5496,7 +5504,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>46</v>
       </c>
@@ -5520,7 +5528,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="9" t="s">
         <v>53</v>
       </c>
@@ -5544,7 +5552,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>144</v>
       </c>
@@ -5568,7 +5576,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="9" t="s">
         <v>150</v>
       </c>
@@ -5592,7 +5600,7 @@
         <v>835</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>97</v>
       </c>
@@ -5616,7 +5624,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="9" t="s">
         <v>136</v>
       </c>
@@ -5640,7 +5648,7 @@
         <v>820</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="9" t="s">
         <v>56</v>
       </c>
@@ -5664,7 +5672,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="9" t="s">
         <v>106</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>805</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="9" t="s">
         <v>100</v>
       </c>
@@ -5712,7 +5720,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="9" t="s">
         <v>107</v>
       </c>
@@ -5736,7 +5744,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="9" t="s">
         <v>60</v>
       </c>
@@ -5760,7 +5768,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="9" t="s">
         <v>158</v>
       </c>
@@ -5784,7 +5792,7 @@
         <v>770</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="9" t="s">
         <v>105</v>
       </c>
@@ -5808,7 +5816,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="9" t="s">
         <v>164</v>
       </c>
@@ -5832,7 +5840,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>36</v>
       </c>
@@ -5856,7 +5864,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>102</v>
       </c>
@@ -5880,7 +5888,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" s="9" t="s">
         <v>138</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" s="9" t="s">
         <v>67</v>
       </c>
@@ -5928,7 +5936,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" s="9" t="s">
         <v>210</v>
       </c>
@@ -5952,7 +5960,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" s="9" t="s">
         <v>58</v>
       </c>
@@ -5976,7 +5984,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" s="9" t="s">
         <v>206</v>
       </c>
@@ -6000,7 +6008,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>199</v>
       </c>
@@ -6024,7 +6032,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>57</v>
       </c>
@@ -6048,7 +6056,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>161</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="9" t="s">
         <v>99</v>
       </c>
@@ -6096,7 +6104,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="9" t="s">
         <v>151</v>
       </c>
@@ -6120,7 +6128,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>220</v>
       </c>
@@ -6144,7 +6152,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>213</v>
       </c>
@@ -6168,7 +6176,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>90</v>
       </c>
@@ -6192,7 +6200,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>104</v>
       </c>
@@ -6216,7 +6224,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>178</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>211</v>
       </c>
@@ -6264,7 +6272,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>221</v>
       </c>
@@ -6288,7 +6296,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>122</v>
       </c>
@@ -6312,7 +6320,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>176</v>
       </c>
@@ -6336,7 +6344,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>94</v>
       </c>
@@ -6360,7 +6368,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="9" t="s">
         <v>92</v>
       </c>
@@ -6384,7 +6392,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="9" t="s">
         <v>41</v>
       </c>
@@ -6408,7 +6416,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="9" t="s">
         <v>129</v>
       </c>
@@ -6432,7 +6440,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="9" t="s">
         <v>131</v>
       </c>
@@ -6456,7 +6464,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="9" t="s">
         <v>86</v>
       </c>
@@ -6480,7 +6488,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="9" t="s">
         <v>205</v>
       </c>
@@ -6504,7 +6512,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="9" t="s">
         <v>167</v>
       </c>
@@ -6528,7 +6536,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>187</v>
       </c>
@@ -6552,7 +6560,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>88</v>
       </c>
@@ -6576,7 +6584,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>201</v>
       </c>
@@ -6600,7 +6608,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>208</v>
       </c>
@@ -6624,7 +6632,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>166</v>
       </c>
@@ -6648,7 +6656,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>114</v>
       </c>
@@ -6672,7 +6680,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>190</v>
       </c>
@@ -6696,7 +6704,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>219</v>
       </c>
@@ -6720,7 +6728,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" s="9" t="s">
         <v>207</v>
       </c>
@@ -6744,7 +6752,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" s="9" t="s">
         <v>83</v>
       </c>
@@ -6768,7 +6776,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" s="9" t="s">
         <v>189</v>
       </c>
@@ -6792,7 +6800,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" s="9" t="s">
         <v>195</v>
       </c>
@@ -6816,7 +6824,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" s="9" t="s">
         <v>177</v>
       </c>
@@ -6840,7 +6848,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" s="9" t="s">
         <v>27</v>
       </c>
@@ -6864,7 +6872,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" s="9" t="s">
         <v>215</v>
       </c>
@@ -6888,7 +6896,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" s="9" t="s">
         <v>126</v>
       </c>
@@ -6912,7 +6920,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>163</v>
       </c>
@@ -6936,7 +6944,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>197</v>
       </c>
@@ -6960,7 +6968,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="9" t="s">
         <v>130</v>
       </c>
@@ -6984,7 +6992,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="9" t="s">
         <v>216</v>
       </c>
@@ -7008,7 +7016,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="9" t="s">
         <v>140</v>
       </c>
@@ -7032,7 +7040,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>211</v>
       </c>
@@ -7056,7 +7064,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>209</v>
       </c>
@@ -7080,7 +7088,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>214</v>
       </c>
@@ -7104,7 +7112,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>217</v>
       </c>
@@ -7128,7 +7136,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>12</v>
       </c>
@@ -7152,7 +7160,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>121</v>
       </c>
@@ -7176,7 +7184,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>8</v>
       </c>
@@ -7200,7 +7208,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>218</v>
       </c>
@@ -7224,7 +7232,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>124</v>
       </c>
@@ -7248,7 +7256,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="9" t="s">
         <v>24</v>
       </c>
@@ -7272,7 +7280,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="9" t="s">
         <v>11</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="9" t="s">
         <v>142</v>
       </c>
@@ -7320,7 +7328,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="9" t="s">
         <v>180</v>
       </c>
@@ -7344,7 +7352,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>96</v>
       </c>
@@ -7368,7 +7376,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>26</v>
       </c>
@@ -7392,7 +7400,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>180</v>
       </c>
@@ -7416,7 +7424,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>18</v>
       </c>
@@ -7436,11 +7444,11 @@
         <v>0</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" ref="G130:G161" si="4">D130+E130+F130</f>
+        <f t="shared" ref="G130:G140" si="4">D130+E130+F130</f>
         <v>155</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>223</v>
       </c>
@@ -7464,7 +7472,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>18</v>
       </c>
@@ -7488,7 +7496,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>168</v>
       </c>
@@ -7512,7 +7520,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>6</v>
       </c>
@@ -7536,7 +7544,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>11</v>
       </c>
@@ -7560,7 +7568,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>225</v>
       </c>
@@ -7584,7 +7592,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>38</v>
       </c>
@@ -7608,7 +7616,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>14</v>
       </c>
@@ -7632,7 +7640,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="9" t="s">
         <v>23</v>
       </c>
@@ -7656,7 +7664,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>21</v>
       </c>
@@ -7702,18 +7710,18 @@
       <selection activeCell="A314" sqref="A314:P314"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7265625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.54296875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.54296875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="8.36328125" style="2" customWidth="1"/>
-    <col min="5" max="15" width="8.7265625" style="2"/>
-    <col min="16" max="16" width="22.1796875" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="8.7265625" style="2"/>
+    <col min="1" max="1" width="15.7109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" style="2" customWidth="1"/>
+    <col min="5" max="15" width="8.7109375" style="2"/>
+    <col min="16" max="16" width="22.140625" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="8.7109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7760,7 +7768,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>75</v>
       </c>
@@ -7808,7 +7816,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>75</v>
       </c>
@@ -7856,7 +7864,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>75</v>
       </c>
@@ -7904,7 +7912,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -7952,7 +7960,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>27</v>
       </c>
@@ -8003,7 +8011,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>114</v>
       </c>
@@ -8054,7 +8062,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>114</v>
       </c>
@@ -8105,7 +8113,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>114</v>
       </c>
@@ -8156,7 +8164,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>216</v>
       </c>
@@ -8207,7 +8215,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>216</v>
       </c>
@@ -8258,7 +8266,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>86</v>
       </c>
@@ -8309,7 +8317,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>86</v>
       </c>
@@ -8360,7 +8368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>144</v>
       </c>
@@ -8411,7 +8419,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>144</v>
       </c>
@@ -8462,7 +8470,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>144</v>
       </c>
@@ -8513,7 +8521,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>144</v>
       </c>
@@ -8564,7 +8572,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>183</v>
       </c>
@@ -8615,7 +8623,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>46</v>
       </c>
@@ -8666,7 +8674,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>46</v>
       </c>
@@ -8717,7 +8725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>46</v>
       </c>
@@ -8768,7 +8776,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>46</v>
       </c>
@@ -8819,7 +8827,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>217</v>
       </c>
@@ -8870,7 +8878,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>163</v>
       </c>
@@ -8921,7 +8929,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>180</v>
       </c>
@@ -8972,7 +8980,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>180</v>
       </c>
@@ -9023,7 +9031,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>189</v>
       </c>
@@ -9074,7 +9082,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>67</v>
       </c>
@@ -9125,7 +9133,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>67</v>
       </c>
@@ -9176,7 +9184,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>117</v>
       </c>
@@ -9227,7 +9235,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>117</v>
       </c>
@@ -9278,7 +9286,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>117</v>
       </c>
@@ -9329,7 +9337,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>117</v>
       </c>
@@ -9380,7 +9388,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>121</v>
       </c>
@@ -9431,7 +9439,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>121</v>
       </c>
@@ -9482,7 +9490,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>36</v>
       </c>
@@ -9533,7 +9541,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>36</v>
       </c>
@@ -9584,7 +9592,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -9635,7 +9643,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
@@ -9686,7 +9694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>138</v>
       </c>
@@ -9737,7 +9745,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>138</v>
       </c>
@@ -9788,7 +9796,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>138</v>
       </c>
@@ -9839,7 +9847,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>138</v>
       </c>
@@ -9890,7 +9898,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>182</v>
       </c>
@@ -9941,7 +9949,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>116</v>
       </c>
@@ -9992,7 +10000,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>116</v>
       </c>
@@ -10043,7 +10051,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>116</v>
       </c>
@@ -10094,7 +10102,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>116</v>
       </c>
@@ -10145,7 +10153,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>41</v>
       </c>
@@ -10196,7 +10204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>41</v>
       </c>
@@ -10247,7 +10255,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>41</v>
       </c>
@@ -10298,7 +10306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>41</v>
       </c>
@@ -10349,7 +10357,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>85</v>
       </c>
@@ -10400,7 +10408,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>211</v>
       </c>
@@ -10451,7 +10459,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>211</v>
       </c>
@@ -10502,7 +10510,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>211</v>
       </c>
@@ -10553,7 +10561,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>211</v>
       </c>
@@ -10604,7 +10612,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>211</v>
       </c>
@@ -10655,7 +10663,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>95</v>
       </c>
@@ -10706,7 +10714,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>95</v>
       </c>
@@ -10757,7 +10765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>95</v>
       </c>
@@ -10808,7 +10816,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>95</v>
       </c>
@@ -10859,7 +10867,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>168</v>
       </c>
@@ -10910,7 +10918,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>81</v>
       </c>
@@ -10961,7 +10969,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>81</v>
       </c>
@@ -11012,7 +11020,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>81</v>
       </c>
@@ -11063,7 +11071,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>81</v>
       </c>
@@ -11114,7 +11122,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>160</v>
       </c>
@@ -11165,7 +11173,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>160</v>
       </c>
@@ -11216,7 +11224,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>160</v>
       </c>
@@ -11267,7 +11275,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>160</v>
       </c>
@@ -11318,7 +11326,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>90</v>
       </c>
@@ -11369,7 +11377,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>90</v>
       </c>
@@ -11420,7 +11428,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>90</v>
       </c>
@@ -11471,7 +11479,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>90</v>
       </c>
@@ -11522,7 +11530,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>60</v>
       </c>
@@ -11573,7 +11581,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>60</v>
       </c>
@@ -11624,7 +11632,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>60</v>
       </c>
@@ -11675,7 +11683,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>134</v>
       </c>
@@ -11726,7 +11734,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>134</v>
       </c>
@@ -11777,7 +11785,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>134</v>
       </c>
@@ -11828,7 +11836,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>134</v>
       </c>
@@ -11879,7 +11887,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>92</v>
       </c>
@@ -11930,7 +11938,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>92</v>
       </c>
@@ -11981,7 +11989,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>92</v>
       </c>
@@ -12032,7 +12040,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>92</v>
       </c>
@@ -12083,7 +12091,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>166</v>
       </c>
@@ -12134,7 +12142,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>166</v>
       </c>
@@ -12185,7 +12193,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>166</v>
       </c>
@@ -12236,7 +12244,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>136</v>
       </c>
@@ -12287,7 +12295,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>136</v>
       </c>
@@ -12338,7 +12346,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>136</v>
       </c>
@@ -12389,7 +12397,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>136</v>
       </c>
@@ -12440,7 +12448,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>99</v>
       </c>
@@ -12491,7 +12499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>99</v>
       </c>
@@ -12542,7 +12550,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>99</v>
       </c>
@@ -12593,7 +12601,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>99</v>
       </c>
@@ -12644,7 +12652,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>225</v>
       </c>
@@ -12695,7 +12703,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>150</v>
       </c>
@@ -12746,7 +12754,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>150</v>
       </c>
@@ -12797,7 +12805,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>150</v>
       </c>
@@ -12848,7 +12856,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>150</v>
       </c>
@@ -12899,7 +12907,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>170</v>
       </c>
@@ -12950,7 +12958,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>170</v>
       </c>
@@ -13001,7 +13009,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>170</v>
       </c>
@@ -13052,7 +13060,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>170</v>
       </c>
@@ -13103,7 +13111,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>124</v>
       </c>
@@ -13154,7 +13162,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>124</v>
       </c>
@@ -13205,7 +13213,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>151</v>
       </c>
@@ -13256,7 +13264,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>151</v>
       </c>
@@ -13307,7 +13315,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>151</v>
       </c>
@@ -13358,7 +13366,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>151</v>
       </c>
@@ -13409,7 +13417,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>54</v>
       </c>
@@ -13460,7 +13468,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>54</v>
       </c>
@@ -13511,7 +13519,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>54</v>
       </c>
@@ -13562,7 +13570,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>54</v>
       </c>
@@ -13613,7 +13621,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>54</v>
       </c>
@@ -13664,7 +13672,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>54</v>
       </c>
@@ -13715,7 +13723,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>54</v>
       </c>
@@ -13766,7 +13774,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>175</v>
       </c>
@@ -13817,7 +13825,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>175</v>
       </c>
@@ -13868,7 +13876,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>175</v>
       </c>
@@ -13919,7 +13927,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>175</v>
       </c>
@@ -13970,7 +13978,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>107</v>
       </c>
@@ -14021,7 +14029,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5" t="s">
         <v>107</v>
       </c>
@@ -14072,7 +14080,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5" t="s">
         <v>107</v>
       </c>
@@ -14123,7 +14131,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5" t="s">
         <v>107</v>
       </c>
@@ -14174,7 +14182,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>207</v>
       </c>
@@ -14225,7 +14233,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5" t="s">
         <v>57</v>
       </c>
@@ -14276,7 +14284,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5" t="s">
         <v>57</v>
       </c>
@@ -14327,7 +14335,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5" t="s">
         <v>57</v>
       </c>
@@ -14378,7 +14386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5" t="s">
         <v>57</v>
       </c>
@@ -14429,7 +14437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>181</v>
       </c>
@@ -14480,7 +14488,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>11</v>
       </c>
@@ -14531,7 +14539,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>11</v>
       </c>
@@ -14582,7 +14590,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>196</v>
       </c>
@@ -14633,7 +14641,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>196</v>
       </c>
@@ -14684,7 +14692,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>196</v>
       </c>
@@ -14735,7 +14743,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>196</v>
       </c>
@@ -14786,7 +14794,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>223</v>
       </c>
@@ -14837,7 +14845,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>223</v>
       </c>
@@ -14888,7 +14896,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>200</v>
       </c>
@@ -14939,7 +14947,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>200</v>
       </c>
@@ -14990,7 +14998,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>200</v>
       </c>
@@ -15041,7 +15049,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>200</v>
       </c>
@@ -15092,7 +15100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>70</v>
       </c>
@@ -15143,7 +15151,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>70</v>
       </c>
@@ -15194,7 +15202,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>70</v>
       </c>
@@ -15245,7 +15253,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>70</v>
       </c>
@@ -15296,7 +15304,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>12</v>
       </c>
@@ -15347,7 +15355,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>159</v>
       </c>
@@ -15398,7 +15406,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>159</v>
       </c>
@@ -15449,7 +15457,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>159</v>
       </c>
@@ -15500,7 +15508,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>159</v>
       </c>
@@ -15551,7 +15559,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>185</v>
       </c>
@@ -15602,7 +15610,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>199</v>
       </c>
@@ -15653,7 +15661,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>199</v>
       </c>
@@ -15704,7 +15712,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>199</v>
       </c>
@@ -15755,7 +15763,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>199</v>
       </c>
@@ -15806,7 +15814,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>106</v>
       </c>
@@ -15857,7 +15865,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5" t="s">
         <v>106</v>
       </c>
@@ -15908,7 +15916,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5" t="s">
         <v>106</v>
       </c>
@@ -15959,7 +15967,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5" t="s">
         <v>106</v>
       </c>
@@ -16010,7 +16018,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>172</v>
       </c>
@@ -16061,7 +16069,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>172</v>
       </c>
@@ -16112,7 +16120,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>172</v>
       </c>
@@ -16163,7 +16171,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>172</v>
       </c>
@@ -16214,7 +16222,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>18</v>
       </c>
@@ -16265,7 +16273,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>18</v>
       </c>
@@ -16316,7 +16324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>100</v>
       </c>
@@ -16367,7 +16375,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>100</v>
       </c>
@@ -16418,7 +16426,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
         <v>100</v>
       </c>
@@ -16469,7 +16477,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
         <v>100</v>
       </c>
@@ -16520,7 +16528,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>167</v>
       </c>
@@ -16571,7 +16579,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>167</v>
       </c>
@@ -16622,7 +16630,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>167</v>
       </c>
@@ -16673,7 +16681,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>140</v>
       </c>
@@ -16724,7 +16732,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>205</v>
       </c>
@@ -16775,7 +16783,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>205</v>
       </c>
@@ -16826,7 +16834,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>205</v>
       </c>
@@ -16877,7 +16885,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>83</v>
       </c>
@@ -16928,7 +16936,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>83</v>
       </c>
@@ -16979,7 +16987,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>73</v>
       </c>
@@ -17030,7 +17038,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>73</v>
       </c>
@@ -17081,7 +17089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>73</v>
       </c>
@@ -17132,7 +17140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>73</v>
       </c>
@@ -17183,7 +17191,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>157</v>
       </c>
@@ -17234,7 +17242,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>157</v>
       </c>
@@ -17285,7 +17293,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>157</v>
       </c>
@@ -17336,7 +17344,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>157</v>
       </c>
@@ -17387,7 +17395,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>77</v>
       </c>
@@ -17438,7 +17446,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>77</v>
       </c>
@@ -17489,7 +17497,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>77</v>
       </c>
@@ -17540,7 +17548,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>77</v>
       </c>
@@ -17591,7 +17599,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>133</v>
       </c>
@@ -17642,7 +17650,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>133</v>
       </c>
@@ -17693,7 +17701,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>133</v>
       </c>
@@ -17744,7 +17752,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>133</v>
       </c>
@@ -17795,7 +17803,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>187</v>
       </c>
@@ -17846,7 +17854,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>176</v>
       </c>
@@ -17897,7 +17905,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>176</v>
       </c>
@@ -17948,7 +17956,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>176</v>
       </c>
@@ -17999,7 +18007,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>176</v>
       </c>
@@ -18050,7 +18058,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>34</v>
       </c>
@@ -18101,7 +18109,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>34</v>
       </c>
@@ -18152,7 +18160,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>34</v>
       </c>
@@ -18203,7 +18211,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>34</v>
       </c>
@@ -18254,7 +18262,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>53</v>
       </c>
@@ -18305,7 +18313,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>53</v>
       </c>
@@ -18356,7 +18364,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>53</v>
       </c>
@@ -18407,7 +18415,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>193</v>
       </c>
@@ -18458,7 +18466,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>193</v>
       </c>
@@ -18509,7 +18517,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>193</v>
       </c>
@@ -18560,7 +18568,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>193</v>
       </c>
@@ -18611,7 +18619,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>63</v>
       </c>
@@ -18662,7 +18670,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>63</v>
       </c>
@@ -18713,7 +18721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>63</v>
       </c>
@@ -18764,7 +18772,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>63</v>
       </c>
@@ -18815,7 +18823,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>173</v>
       </c>
@@ -18866,7 +18874,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>173</v>
       </c>
@@ -18917,7 +18925,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>173</v>
       </c>
@@ -18968,7 +18976,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>173</v>
       </c>
@@ -19019,7 +19027,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>220</v>
       </c>
@@ -19070,7 +19078,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>220</v>
       </c>
@@ -19121,7 +19129,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>38</v>
       </c>
@@ -19172,7 +19180,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>94</v>
       </c>
@@ -19223,7 +19231,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>94</v>
       </c>
@@ -19274,7 +19282,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>94</v>
       </c>
@@ -19325,7 +19333,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>94</v>
       </c>
@@ -19376,7 +19384,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>208</v>
       </c>
@@ -19427,7 +19435,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>131</v>
       </c>
@@ -19478,7 +19486,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>131</v>
       </c>
@@ -19529,7 +19537,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>120</v>
       </c>
@@ -19580,7 +19588,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>120</v>
       </c>
@@ -19631,7 +19639,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>120</v>
       </c>
@@ -19682,7 +19690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>120</v>
       </c>
@@ -19733,7 +19741,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>201</v>
       </c>
@@ -19784,7 +19792,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>201</v>
       </c>
@@ -19835,7 +19843,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>201</v>
       </c>
@@ -19886,7 +19894,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>201</v>
       </c>
@@ -19937,7 +19945,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>197</v>
       </c>
@@ -19988,7 +19996,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>197</v>
       </c>
@@ -20039,7 +20047,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>197</v>
       </c>
@@ -20090,7 +20098,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>197</v>
       </c>
@@ -20141,7 +20149,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>8</v>
       </c>
@@ -20192,7 +20200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>214</v>
       </c>
@@ -20243,7 +20251,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>214</v>
       </c>
@@ -20294,7 +20302,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>221</v>
       </c>
@@ -20342,7 +20350,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>227</v>
       </c>
@@ -20393,7 +20401,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>227</v>
       </c>
@@ -20444,7 +20452,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>227</v>
       </c>
@@ -20495,7 +20503,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>227</v>
       </c>
@@ -20546,7 +20554,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>104</v>
       </c>
@@ -20597,7 +20605,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>104</v>
       </c>
@@ -20648,7 +20656,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" s="5" t="s">
         <v>104</v>
       </c>
@@ -20699,7 +20707,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" s="5" t="s">
         <v>104</v>
       </c>
@@ -20750,7 +20758,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>195</v>
       </c>
@@ -20801,7 +20809,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>195</v>
       </c>
@@ -20852,7 +20860,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>195</v>
       </c>
@@ -20903,7 +20911,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>210</v>
       </c>
@@ -20951,7 +20959,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>210</v>
       </c>
@@ -20999,7 +21007,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>210</v>
       </c>
@@ -21047,7 +21055,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>156</v>
       </c>
@@ -21098,7 +21106,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>156</v>
       </c>
@@ -21149,7 +21157,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>156</v>
       </c>
@@ -21200,7 +21208,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>156</v>
       </c>
@@ -21251,7 +21259,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>191</v>
       </c>
@@ -21302,7 +21310,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>191</v>
       </c>
@@ -21353,7 +21361,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>191</v>
       </c>
@@ -21404,7 +21412,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>177</v>
       </c>
@@ -21455,7 +21463,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>177</v>
       </c>
@@ -21506,7 +21514,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>177</v>
       </c>
@@ -21557,7 +21565,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>65</v>
       </c>
@@ -21608,7 +21616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>65</v>
       </c>
@@ -21659,7 +21667,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>65</v>
       </c>
@@ -21710,7 +21718,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>65</v>
       </c>
@@ -21761,7 +21769,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>6</v>
       </c>
@@ -21812,7 +21820,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>130</v>
       </c>
@@ -21863,7 +21871,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>130</v>
       </c>
@@ -21914,7 +21922,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>209</v>
       </c>
@@ -21965,7 +21973,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" s="5" t="s">
         <v>108</v>
       </c>
@@ -22016,7 +22024,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>108</v>
       </c>
@@ -22067,7 +22075,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" s="5" t="s">
         <v>108</v>
       </c>
@@ -22118,7 +22126,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" s="5" t="s">
         <v>108</v>
       </c>
@@ -22169,7 +22177,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>164</v>
       </c>
@@ -22220,7 +22228,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>164</v>
       </c>
@@ -22271,7 +22279,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>164</v>
       </c>
@@ -22322,7 +22330,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>164</v>
       </c>
@@ -22373,7 +22381,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>158</v>
       </c>
@@ -22424,7 +22432,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>158</v>
       </c>
@@ -22475,7 +22483,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>158</v>
       </c>
@@ -22526,7 +22534,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>32</v>
       </c>
@@ -22577,7 +22585,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>32</v>
       </c>
@@ -22628,7 +22636,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>32</v>
       </c>
@@ -22679,7 +22687,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>32</v>
       </c>
@@ -22730,7 +22738,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>198</v>
       </c>
@@ -22781,7 +22789,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>198</v>
       </c>
@@ -22832,7 +22840,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>198</v>
       </c>
@@ -22883,7 +22891,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>198</v>
       </c>
@@ -22934,7 +22942,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>48</v>
       </c>
@@ -22985,7 +22993,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>48</v>
       </c>
@@ -23036,7 +23044,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>48</v>
       </c>
@@ -23087,7 +23095,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>48</v>
       </c>
@@ -23138,7 +23146,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>72</v>
       </c>
@@ -23189,7 +23197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>72</v>
       </c>
@@ -23240,7 +23248,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>72</v>
       </c>
@@ -23291,7 +23299,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>72</v>
       </c>
@@ -23342,7 +23350,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>79</v>
       </c>
@@ -23393,7 +23401,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>79</v>
       </c>
@@ -23444,7 +23452,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>79</v>
       </c>
@@ -23495,7 +23503,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>79</v>
       </c>
@@ -23546,7 +23554,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="312" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>148</v>
       </c>
@@ -23597,7 +23605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="313" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>148</v>
       </c>
@@ -23648,7 +23656,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="314" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>148</v>
       </c>
@@ -23699,7 +23707,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="315" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>148</v>
       </c>
@@ -23750,7 +23758,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>206</v>
       </c>
@@ -23801,7 +23809,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>206</v>
       </c>
@@ -23852,7 +23860,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>161</v>
       </c>
@@ -23903,7 +23911,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>161</v>
       </c>
@@ -23954,7 +23962,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>161</v>
       </c>
@@ -24005,7 +24013,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>68</v>
       </c>
@@ -24056,7 +24064,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>68</v>
       </c>
@@ -24107,7 +24115,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>68</v>
       </c>
@@ -24158,7 +24166,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>56</v>
       </c>
@@ -24209,7 +24217,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>56</v>
       </c>
@@ -24260,7 +24268,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" s="5" t="s">
         <v>56</v>
       </c>
@@ -24311,7 +24319,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>219</v>
       </c>
@@ -24362,7 +24370,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>219</v>
       </c>
@@ -24413,7 +24421,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>24</v>
       </c>
@@ -24464,7 +24472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>218</v>
       </c>
@@ -24515,7 +24523,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>154</v>
       </c>
@@ -24566,7 +24574,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>154</v>
       </c>
@@ -24617,7 +24625,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>154</v>
       </c>
@@ -24668,7 +24676,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>154</v>
       </c>
@@ -24719,7 +24727,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>224</v>
       </c>
@@ -24767,7 +24775,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>224</v>
       </c>
@@ -24815,7 +24823,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>224</v>
       </c>
@@ -24863,7 +24871,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>224</v>
       </c>
@@ -24911,7 +24919,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>21</v>
       </c>
@@ -24962,7 +24970,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>142</v>
       </c>
@@ -25013,7 +25021,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>142</v>
       </c>
@@ -25064,7 +25072,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>142</v>
       </c>
@@ -25115,7 +25123,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>142</v>
       </c>
@@ -25166,7 +25174,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>142</v>
       </c>
@@ -25217,7 +25225,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>23</v>
       </c>
@@ -25268,7 +25276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>96</v>
       </c>
@@ -25319,7 +25327,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>96</v>
       </c>
@@ -25370,7 +25378,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>96</v>
       </c>
@@ -25421,7 +25429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>97</v>
       </c>
@@ -25472,7 +25480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>97</v>
       </c>
@@ -25523,7 +25531,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>97</v>
       </c>
@@ -25574,7 +25582,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>126</v>
       </c>
@@ -25625,7 +25633,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>128</v>
       </c>
@@ -25676,7 +25684,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" s="3" t="s">
         <v>213</v>
       </c>
@@ -25727,7 +25735,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" s="3" t="s">
         <v>213</v>
       </c>
@@ -25778,7 +25786,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A356" s="3" t="s">
         <v>213</v>
       </c>
@@ -25829,7 +25837,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" s="3" t="s">
         <v>14</v>
       </c>
@@ -25880,7 +25888,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" s="3" t="s">
         <v>147</v>
       </c>
@@ -25931,7 +25939,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" s="5" t="s">
         <v>147</v>
       </c>
@@ -25982,7 +25990,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" s="5" t="s">
         <v>147</v>
       </c>
@@ -26033,7 +26041,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" s="5" t="s">
         <v>147</v>
       </c>
@@ -26084,7 +26092,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>102</v>
       </c>
@@ -26135,7 +26143,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" s="3" t="s">
         <v>102</v>
       </c>
@@ -26186,7 +26194,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" s="5" t="s">
         <v>102</v>
       </c>
@@ -26237,7 +26245,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" s="5" t="s">
         <v>102</v>
       </c>
@@ -26288,7 +26296,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" s="3" t="s">
         <v>215</v>
       </c>
@@ -26339,7 +26347,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" s="3" t="s">
         <v>215</v>
       </c>
@@ -26390,7 +26398,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A368" s="3" t="s">
         <v>235</v>
       </c>
@@ -26441,7 +26449,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A369" s="3" t="s">
         <v>233</v>
       </c>
@@ -26492,7 +26500,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A370" s="3" t="s">
         <v>233</v>
       </c>
@@ -26543,7 +26551,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>112</v>
       </c>
@@ -26594,7 +26602,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>112</v>
       </c>
@@ -26645,7 +26653,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>112</v>
       </c>
@@ -26696,7 +26704,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>112</v>
       </c>
@@ -26747,7 +26755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A375" s="3" t="s">
         <v>50</v>
       </c>
@@ -26798,7 +26806,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>50</v>
       </c>
@@ -26849,7 +26857,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A377" s="3" t="s">
         <v>50</v>
       </c>
@@ -26900,7 +26908,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>50</v>
       </c>
@@ -26951,7 +26959,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A379" s="3" t="s">
         <v>28</v>
       </c>
@@ -27002,7 +27010,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A380" s="3" t="s">
         <v>28</v>
       </c>
@@ -27053,7 +27061,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A381" s="3" t="s">
         <v>28</v>
       </c>
@@ -27104,7 +27112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>28</v>
       </c>
@@ -27155,7 +27163,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A383" s="3" t="s">
         <v>153</v>
       </c>
@@ -27206,7 +27214,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A384" s="3" t="s">
         <v>153</v>
       </c>
@@ -27257,7 +27265,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>153</v>
       </c>
@@ -27308,7 +27316,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A386" s="3" t="s">
         <v>153</v>
       </c>
@@ -27352,14 +27360,14 @@
         <v>35</v>
       </c>
       <c r="O386" s="4">
-        <f t="shared" ref="O386:O449" si="6">SUM(E386:N386)</f>
+        <f t="shared" ref="O386:O413" si="6">SUM(E386:N386)</f>
         <v>350</v>
       </c>
       <c r="P386" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>122</v>
       </c>
@@ -27410,7 +27418,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>122</v>
       </c>
@@ -27461,7 +27469,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A389" s="3" t="s">
         <v>190</v>
       </c>
@@ -27512,7 +27520,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>26</v>
       </c>
@@ -27563,7 +27571,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>178</v>
       </c>
@@ -27614,7 +27622,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>178</v>
       </c>
@@ -27665,7 +27673,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>178</v>
       </c>
@@ -27716,7 +27724,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>178</v>
       </c>
@@ -27767,7 +27775,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A395" s="3" t="s">
         <v>43</v>
       </c>
@@ -27818,7 +27826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A396" s="3" t="s">
         <v>43</v>
       </c>
@@ -27869,7 +27877,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A397" s="3" t="s">
         <v>43</v>
       </c>
@@ -27920,7 +27928,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A398" s="3" t="s">
         <v>43</v>
       </c>
@@ -27971,7 +27979,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A399" s="5" t="s">
         <v>58</v>
       </c>
@@ -28022,7 +28030,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A400" s="5" t="s">
         <v>58</v>
       </c>
@@ -28073,7 +28081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A401" s="5" t="s">
         <v>58</v>
       </c>
@@ -28124,7 +28132,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A402" s="3" t="s">
         <v>82</v>
       </c>
@@ -28175,7 +28183,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A403" s="3" t="s">
         <v>82</v>
       </c>
@@ -28226,7 +28234,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" s="3" t="s">
         <v>82</v>
       </c>
@@ -28277,7 +28285,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" s="3" t="s">
         <v>82</v>
       </c>
@@ -28328,7 +28336,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" s="3" t="s">
         <v>88</v>
       </c>
@@ -28379,7 +28387,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" s="3" t="s">
         <v>88</v>
       </c>
@@ -28430,7 +28438,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>105</v>
       </c>
@@ -28481,7 +28489,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" s="3" t="s">
         <v>105</v>
       </c>
@@ -28532,7 +28540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" s="5" t="s">
         <v>105</v>
       </c>
@@ -28583,7 +28591,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" s="5" t="s">
         <v>105</v>
       </c>
@@ -28634,7 +28642,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>129</v>
       </c>
@@ -28685,7 +28693,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>129</v>
       </c>
@@ -28764,14 +28772,14 @@
       <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.90625" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" customWidth="1"/>
-    <col min="3" max="3" width="5.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="5.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>206</v>
       </c>
@@ -28818,7 +28826,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>216</v>
       </c>
@@ -28865,7 +28873,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>205</v>
       </c>
@@ -28912,7 +28920,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>214</v>
       </c>
@@ -28959,7 +28967,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>217</v>
       </c>
@@ -29006,7 +29014,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>218</v>
       </c>
@@ -29053,7 +29061,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>223</v>
       </c>
@@ -29100,7 +29108,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>225</v>
       </c>
@@ -29147,7 +29155,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>213</v>
       </c>
@@ -29194,7 +29202,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>208</v>
       </c>
@@ -29241,7 +29249,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>211</v>
       </c>
@@ -29288,7 +29296,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>207</v>
       </c>
@@ -29335,7 +29343,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>220</v>
       </c>
@@ -29382,7 +29390,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>215</v>
       </c>
@@ -29429,7 +29437,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>219</v>
       </c>
@@ -29476,7 +29484,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>209</v>
       </c>
@@ -29523,7 +29531,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>211</v>
       </c>
@@ -29570,7 +29578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>206</v>
       </c>
@@ -29617,7 +29625,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>220</v>
       </c>
@@ -29664,7 +29672,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>213</v>
       </c>
@@ -29711,7 +29719,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>205</v>
       </c>
@@ -29758,7 +29766,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>211</v>
       </c>
@@ -29805,7 +29813,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>219</v>
       </c>
@@ -29852,7 +29860,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>211</v>
       </c>
@@ -29899,7 +29907,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>214</v>
       </c>
@@ -29946,7 +29954,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>213</v>
       </c>
@@ -29993,7 +30001,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>205</v>
       </c>
@@ -30040,7 +30048,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>215</v>
       </c>
@@ -30087,7 +30095,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>216</v>
       </c>
@@ -30134,7 +30142,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>211</v>
       </c>
@@ -30181,7 +30189,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>223</v>
       </c>
